--- a/CS320-Spring2021Calendar-Test.xlsx
+++ b/CS320-Spring2021Calendar-Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Cafe\cs320-spring2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D172F231-0B7C-44DD-B967-1E4756217F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29ABB1D-ECF1-486F-A2E4-C3026E5AB69D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1881,8 +1881,8 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,7 +2447,7 @@
       <c r="I26" s="118"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="str">
+      <c r="A27" s="113" t="str">
         <f>A2</f>
         <v>Weeks</v>
       </c>
